--- a/Results/Emissions/RR/Cumulative_Emission_hist.xlsx
+++ b/Results/Emissions/RR/Cumulative_Emission_hist.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -4536,4 +4538,2774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313184253996</v>
+      </c>
+      <c r="C2">
+        <v>113.2051186240275</v>
+      </c>
+      <c r="D2">
+        <v>177.3140570824509</v>
+      </c>
+      <c r="E2">
+        <v>238.1869348257314</v>
+      </c>
+      <c r="F2">
+        <v>336.1717143587543</v>
+      </c>
+      <c r="G2">
+        <v>406.8668793008137</v>
+      </c>
+      <c r="H2">
+        <v>532.6410682284492</v>
+      </c>
+      <c r="I2">
+        <v>652.1833471037365</v>
+      </c>
+      <c r="J2">
+        <v>764.3133564244107</v>
+      </c>
+      <c r="K2">
+        <v>865.5166474294415</v>
+      </c>
+      <c r="L2">
+        <v>1075.33404812003</v>
+      </c>
+      <c r="M2">
+        <v>1218.134244099585</v>
+      </c>
+      <c r="N2">
+        <v>1497.535652844593</v>
+      </c>
+      <c r="O2">
+        <v>1799.117256852577</v>
+      </c>
+      <c r="P2">
+        <v>2123.187953295419</v>
+      </c>
+      <c r="Q2">
+        <v>2832.65684867501</v>
+      </c>
+      <c r="R2">
+        <v>3592.33576082324</v>
+      </c>
+      <c r="S2">
+        <v>4402.770090006798</v>
+      </c>
+      <c r="T2">
+        <v>5264.916792842165</v>
+      </c>
+      <c r="U2">
+        <v>6179.537455004403</v>
+      </c>
+      <c r="V2">
+        <v>7098.602122935022</v>
+      </c>
+      <c r="W2">
+        <v>8068.146525921156</v>
+      </c>
+      <c r="X2">
+        <v>9088.588500250684</v>
+      </c>
+      <c r="Y2">
+        <v>10160.99425200471</v>
+      </c>
+      <c r="Z2">
+        <v>11286.8358423825</v>
+      </c>
+      <c r="AA2">
+        <v>11812.689176471</v>
+      </c>
+      <c r="AB2">
+        <v>12353.17836935634</v>
+      </c>
+      <c r="AC2">
+        <v>12912.45526801892</v>
+      </c>
+      <c r="AD2">
+        <v>13489.9192496928</v>
+      </c>
+      <c r="AE2">
+        <v>14088.65688166523</v>
+      </c>
+      <c r="AF2">
+        <v>14472.20120653028</v>
+      </c>
+      <c r="AG2">
+        <v>14859.32779300888</v>
+      </c>
+      <c r="AH2">
+        <v>15265.25199286906</v>
+      </c>
+      <c r="AI2">
+        <v>15704.82268979228</v>
+      </c>
+      <c r="AJ2">
+        <v>16177.15526603696</v>
+      </c>
+      <c r="AK2">
+        <v>16803.30982930919</v>
+      </c>
+      <c r="AL2">
+        <v>17508.81385130678</v>
+      </c>
+      <c r="AM2">
+        <v>18324.32641729762</v>
+      </c>
+      <c r="AN2">
+        <v>19281.80732690031</v>
+      </c>
+      <c r="AO2">
+        <v>20341.02506427899</v>
+      </c>
+      <c r="AP2">
+        <v>21645.1541319067</v>
+      </c>
+      <c r="AQ2">
+        <v>23005.51699622312</v>
+      </c>
+      <c r="AR2">
+        <v>24413.10028769914</v>
+      </c>
+      <c r="AS2">
+        <v>25859.28054008409</v>
+      </c>
+      <c r="AT2">
+        <v>27344.63728254967</v>
+      </c>
+      <c r="AU2">
+        <v>28900.49692225326</v>
+      </c>
+      <c r="AV2">
+        <v>30440.68797165606</v>
+      </c>
+      <c r="AW2">
+        <v>31880.81058394508</v>
+      </c>
+      <c r="AX2">
+        <v>33158.4281085456</v>
+      </c>
+      <c r="AY2">
+        <v>34355.40482186067</v>
+      </c>
+      <c r="AZ2">
+        <v>35502.25222913222</v>
+      </c>
+      <c r="BA2">
+        <v>36641.3661301977</v>
+      </c>
+      <c r="BB2">
+        <v>37744.06440855157</v>
+      </c>
+      <c r="BC2">
+        <v>38791.09119348971</v>
+      </c>
+      <c r="BD2">
+        <v>39819.86915011272</v>
+      </c>
+      <c r="BE2">
+        <v>40838.5979745485</v>
+      </c>
+      <c r="BF2">
+        <v>41905.68728053589</v>
+      </c>
+      <c r="BG2">
+        <v>43047.06402848824</v>
+      </c>
+      <c r="BH2">
+        <v>44290.43317377326</v>
+      </c>
+      <c r="BI2">
+        <v>45645.30403565142</v>
+      </c>
+      <c r="BJ2">
+        <v>47099.0416833741</v>
+      </c>
+      <c r="BK2">
+        <v>48685.14762009139</v>
+      </c>
+      <c r="BL2">
+        <v>50407.61068653662</v>
+      </c>
+      <c r="BM2">
+        <v>52258.21373765472</v>
+      </c>
+      <c r="BN2">
+        <v>54196.00459499405</v>
+      </c>
+      <c r="BO2">
+        <v>56176.06647346989</v>
+      </c>
+      <c r="BP2">
+        <v>58200.61023322533</v>
+      </c>
+      <c r="BQ2">
+        <v>60261.31112664958</v>
+      </c>
+      <c r="BR2">
+        <v>62334.94132106964</v>
+      </c>
+      <c r="BS2">
+        <v>64372.81709481347</v>
+      </c>
+      <c r="BT2">
+        <v>66314.00839171841</v>
+      </c>
+      <c r="BU2">
+        <v>68159.6459733877</v>
+      </c>
+      <c r="BV2">
+        <v>69937.92623777967</v>
+      </c>
+      <c r="BW2">
+        <v>71680.56565460791</v>
+      </c>
+      <c r="BX2">
+        <v>73400.22428748917</v>
+      </c>
+      <c r="BY2">
+        <v>75082.85137256068</v>
+      </c>
+      <c r="BZ2">
+        <v>76741.87134307873</v>
+      </c>
+      <c r="CA2">
+        <v>78396.83643167524</v>
+      </c>
+      <c r="CB2">
+        <v>80076.22698988777</v>
+      </c>
+      <c r="CC2">
+        <v>81812.0878610558</v>
+      </c>
+      <c r="CD2">
+        <v>83616.88241903081</v>
+      </c>
+      <c r="CE2">
+        <v>85522.43136576809</v>
+      </c>
+      <c r="CF2">
+        <v>87537.88187236726</v>
+      </c>
+      <c r="CG2">
+        <v>89668.906241405</v>
+      </c>
+      <c r="CH2">
+        <v>91922.62369479559</v>
+      </c>
+      <c r="CI2">
+        <v>94274.35363925295</v>
+      </c>
+      <c r="CJ2">
+        <v>96728.82898155016</v>
+      </c>
+      <c r="CK2">
+        <v>99258.17978936249</v>
+      </c>
+      <c r="CL2">
+        <v>101837.0912602313</v>
+      </c>
+      <c r="CM2">
+        <v>104450.0325430963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.48416770966605</v>
+      </c>
+      <c r="C3">
+        <v>39.8721572856231</v>
+      </c>
+      <c r="D3">
+        <v>62.45154895501207</v>
+      </c>
+      <c r="E3">
+        <v>83.87752921630492</v>
+      </c>
+      <c r="F3">
+        <v>118.5008986878357</v>
+      </c>
+      <c r="G3">
+        <v>143.3951730902594</v>
+      </c>
+      <c r="H3">
+        <v>187.8971001435378</v>
+      </c>
+      <c r="I3">
+        <v>230.1565386341407</v>
+      </c>
+      <c r="J3">
+        <v>269.7667290905005</v>
+      </c>
+      <c r="K3">
+        <v>305.471205864542</v>
+      </c>
+      <c r="L3">
+        <v>379.8753866146906</v>
+      </c>
+      <c r="M3">
+        <v>430.3866373339234</v>
+      </c>
+      <c r="N3">
+        <v>529.5591163167869</v>
+      </c>
+      <c r="O3">
+        <v>636.6296127174548</v>
+      </c>
+      <c r="P3">
+        <v>751.7091570090598</v>
+      </c>
+      <c r="Q3">
+        <v>1004.091494612099</v>
+      </c>
+      <c r="R3">
+        <v>1274.355503461293</v>
+      </c>
+      <c r="S3">
+        <v>1562.697063976651</v>
+      </c>
+      <c r="T3">
+        <v>1869.45995521175</v>
+      </c>
+      <c r="U3">
+        <v>2194.91774372809</v>
+      </c>
+      <c r="V3">
+        <v>2521.957165776117</v>
+      </c>
+      <c r="W3">
+        <v>2866.989142196208</v>
+      </c>
+      <c r="X3">
+        <v>3230.163663629102</v>
+      </c>
+      <c r="Y3">
+        <v>3611.863574965053</v>
+      </c>
+      <c r="Z3">
+        <v>4012.617470389504</v>
+      </c>
+      <c r="AA3">
+        <v>4199.592170520124</v>
+      </c>
+      <c r="AB3">
+        <v>4391.790930126451</v>
+      </c>
+      <c r="AC3">
+        <v>4590.70478789832</v>
+      </c>
+      <c r="AD3">
+        <v>4796.116879368023</v>
+      </c>
+      <c r="AE3">
+        <v>5009.13483407952</v>
+      </c>
+      <c r="AF3">
+        <v>5145.483122693513</v>
+      </c>
+      <c r="AG3">
+        <v>5283.111785981841</v>
+      </c>
+      <c r="AH3">
+        <v>5427.486255324399</v>
+      </c>
+      <c r="AI3">
+        <v>5583.938685853691</v>
+      </c>
+      <c r="AJ3">
+        <v>5752.148180545102</v>
+      </c>
+      <c r="AK3">
+        <v>5975.307714415671</v>
+      </c>
+      <c r="AL3">
+        <v>6226.947430608061</v>
+      </c>
+      <c r="AM3">
+        <v>6518.082821740432</v>
+      </c>
+      <c r="AN3">
+        <v>6860.197721746528</v>
+      </c>
+      <c r="AO3">
+        <v>7238.836903533627</v>
+      </c>
+      <c r="AP3">
+        <v>7704.887133124126</v>
+      </c>
+      <c r="AQ3">
+        <v>8191.093835100603</v>
+      </c>
+      <c r="AR3">
+        <v>8694.222501725268</v>
+      </c>
+      <c r="AS3">
+        <v>9211.179588976314</v>
+      </c>
+      <c r="AT3">
+        <v>9742.178976632986</v>
+      </c>
+      <c r="AU3">
+        <v>10298.35496708142</v>
+      </c>
+      <c r="AV3">
+        <v>10848.87064867945</v>
+      </c>
+      <c r="AW3">
+        <v>11363.40230792722</v>
+      </c>
+      <c r="AX3">
+        <v>11819.51723371385</v>
+      </c>
+      <c r="AY3">
+        <v>12246.63429402768</v>
+      </c>
+      <c r="AZ3">
+        <v>12655.87088152822</v>
+      </c>
+      <c r="BA3">
+        <v>13062.31113828861</v>
+      </c>
+      <c r="BB3">
+        <v>13455.64593569336</v>
+      </c>
+      <c r="BC3">
+        <v>13828.95209151121</v>
+      </c>
+      <c r="BD3">
+        <v>14195.67313204058</v>
+      </c>
+      <c r="BE3">
+        <v>14558.86131756185</v>
+      </c>
+      <c r="BF3">
+        <v>14939.39263202818</v>
+      </c>
+      <c r="BG3">
+        <v>15346.57853741134</v>
+      </c>
+      <c r="BH3">
+        <v>15790.37001348235</v>
+      </c>
+      <c r="BI3">
+        <v>16274.18050513783</v>
+      </c>
+      <c r="BJ3">
+        <v>16793.52816599075</v>
+      </c>
+      <c r="BK3">
+        <v>17360.38993089505</v>
+      </c>
+      <c r="BL3">
+        <v>17976.19903371823</v>
+      </c>
+      <c r="BM3">
+        <v>18638.00351231113</v>
+      </c>
+      <c r="BN3">
+        <v>19331.08882623973</v>
+      </c>
+      <c r="BO3">
+        <v>20039.34679515687</v>
+      </c>
+      <c r="BP3">
+        <v>20763.54352799127</v>
+      </c>
+      <c r="BQ3">
+        <v>21500.6906197294</v>
+      </c>
+      <c r="BR3">
+        <v>22242.44463148347</v>
+      </c>
+      <c r="BS3">
+        <v>22971.31478028026</v>
+      </c>
+      <c r="BT3">
+        <v>23665.44682702538</v>
+      </c>
+      <c r="BU3">
+        <v>24325.21207336245</v>
+      </c>
+      <c r="BV3">
+        <v>24960.74448520609</v>
+      </c>
+      <c r="BW3">
+        <v>25583.44233308085</v>
+      </c>
+      <c r="BX3">
+        <v>26197.8558920651</v>
+      </c>
+      <c r="BY3">
+        <v>26798.97029537843</v>
+      </c>
+      <c r="BZ3">
+        <v>27391.57448211131</v>
+      </c>
+      <c r="CA3">
+        <v>27982.6933989846</v>
+      </c>
+      <c r="CB3">
+        <v>28582.5597546275</v>
+      </c>
+      <c r="CC3">
+        <v>29202.68671558427</v>
+      </c>
+      <c r="CD3">
+        <v>29847.59317098507</v>
+      </c>
+      <c r="CE3">
+        <v>30528.66734855333</v>
+      </c>
+      <c r="CF3">
+        <v>31249.19388838187</v>
+      </c>
+      <c r="CG3">
+        <v>32011.20918860504</v>
+      </c>
+      <c r="CH3">
+        <v>32817.27016054508</v>
+      </c>
+      <c r="CI3">
+        <v>33658.57448395099</v>
+      </c>
+      <c r="CJ3">
+        <v>34536.75509870102</v>
+      </c>
+      <c r="CK3">
+        <v>35441.7970703622</v>
+      </c>
+      <c r="CL3">
+        <v>36364.60399182902</v>
+      </c>
+      <c r="CM3">
+        <v>37299.59567931477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.618659289207</v>
+      </c>
+      <c r="C4">
+        <v>6255.89220721378</v>
+      </c>
+      <c r="D4">
+        <v>8716.281860937341</v>
+      </c>
+      <c r="E4">
+        <v>11520.34777869722</v>
+      </c>
+      <c r="F4">
+        <v>15060.81706528602</v>
+      </c>
+      <c r="G4">
+        <v>18362.47046016711</v>
+      </c>
+      <c r="H4">
+        <v>21911.46105340352</v>
+      </c>
+      <c r="I4">
+        <v>25025.68173797709</v>
+      </c>
+      <c r="J4">
+        <v>28407.09666590146</v>
+      </c>
+      <c r="K4">
+        <v>32401.44712174265</v>
+      </c>
+      <c r="L4">
+        <v>36186.12526197545</v>
+      </c>
+      <c r="M4">
+        <v>40551.18710492914</v>
+      </c>
+      <c r="N4">
+        <v>63615.56795869466</v>
+      </c>
+      <c r="O4">
+        <v>86807.44216303434</v>
+      </c>
+      <c r="P4">
+        <v>110097.549235341</v>
+      </c>
+      <c r="Q4">
+        <v>183639.5063611734</v>
+      </c>
+      <c r="R4">
+        <v>257332.6197987786</v>
+      </c>
+      <c r="S4">
+        <v>331201.1874050406</v>
+      </c>
+      <c r="T4">
+        <v>405264.6052061477</v>
+      </c>
+      <c r="U4">
+        <v>479537.8165471409</v>
+      </c>
+      <c r="V4">
+        <v>557119.6919827498</v>
+      </c>
+      <c r="W4">
+        <v>634951.7252902446</v>
+      </c>
+      <c r="X4">
+        <v>713030.2595248147</v>
+      </c>
+      <c r="Y4">
+        <v>791380.9575483927</v>
+      </c>
+      <c r="Z4">
+        <v>870040.4075776662</v>
+      </c>
+      <c r="AA4">
+        <v>892893.0314587265</v>
+      </c>
+      <c r="AB4">
+        <v>916129.3734298166</v>
+      </c>
+      <c r="AC4">
+        <v>939824.2678329563</v>
+      </c>
+      <c r="AD4">
+        <v>963981.0469610041</v>
+      </c>
+      <c r="AE4">
+        <v>988723.1550537577</v>
+      </c>
+      <c r="AF4">
+        <v>996239.7309034441</v>
+      </c>
+      <c r="AG4">
+        <v>1004446.503198683</v>
+      </c>
+      <c r="AH4">
+        <v>1013688.474563848</v>
+      </c>
+      <c r="AI4">
+        <v>1024375.684414832</v>
+      </c>
+      <c r="AJ4">
+        <v>1036886.070061057</v>
+      </c>
+      <c r="AK4">
+        <v>1060697.05393617</v>
+      </c>
+      <c r="AL4">
+        <v>1087472.418190404</v>
+      </c>
+      <c r="AM4">
+        <v>1117710.027807105</v>
+      </c>
+      <c r="AN4">
+        <v>1151852.16880903</v>
+      </c>
+      <c r="AO4">
+        <v>1189027.80155662</v>
+      </c>
+      <c r="AP4">
+        <v>1240196.51797866</v>
+      </c>
+      <c r="AQ4">
+        <v>1293061.735551781</v>
+      </c>
+      <c r="AR4">
+        <v>1347159.122711232</v>
+      </c>
+      <c r="AS4">
+        <v>1401960.492947805</v>
+      </c>
+      <c r="AT4">
+        <v>1457008.795206221</v>
+      </c>
+      <c r="AU4">
+        <v>1515194.301214005</v>
+      </c>
+      <c r="AV4">
+        <v>1572114.156349646</v>
+      </c>
+      <c r="AW4">
+        <v>1626534.265611921</v>
+      </c>
+      <c r="AX4">
+        <v>1677603.01282911</v>
+      </c>
+      <c r="AY4">
+        <v>1726131.216637787</v>
+      </c>
+      <c r="AZ4">
+        <v>1770767.0216436</v>
+      </c>
+      <c r="BA4">
+        <v>1813740.534642723</v>
+      </c>
+      <c r="BB4">
+        <v>1855097.068725067</v>
+      </c>
+      <c r="BC4">
+        <v>1895174.810025762</v>
+      </c>
+      <c r="BD4">
+        <v>1934509.339231177</v>
+      </c>
+      <c r="BE4">
+        <v>1972530.739024781</v>
+      </c>
+      <c r="BF4">
+        <v>2011048.990499593</v>
+      </c>
+      <c r="BG4">
+        <v>2050989.083589971</v>
+      </c>
+      <c r="BH4">
+        <v>2093135.072251605</v>
+      </c>
+      <c r="BI4">
+        <v>2137907.619769746</v>
+      </c>
+      <c r="BJ4">
+        <v>2185384.069612239</v>
+      </c>
+      <c r="BK4">
+        <v>2235899.417619571</v>
+      </c>
+      <c r="BL4">
+        <v>2289281.253335493</v>
+      </c>
+      <c r="BM4">
+        <v>2345175.342828183</v>
+      </c>
+      <c r="BN4">
+        <v>2403017.571670693</v>
+      </c>
+      <c r="BO4">
+        <v>2462335.457811994</v>
+      </c>
+      <c r="BP4">
+        <v>2522815.832694286</v>
+      </c>
+      <c r="BQ4">
+        <v>2584113.910787415</v>
+      </c>
+      <c r="BR4">
+        <v>2645716.581431378</v>
+      </c>
+      <c r="BS4">
+        <v>2706879.51104047</v>
+      </c>
+      <c r="BT4">
+        <v>2766602.927370868</v>
+      </c>
+      <c r="BU4">
+        <v>2824932.575793013</v>
+      </c>
+      <c r="BV4">
+        <v>2882214.449191013</v>
+      </c>
+      <c r="BW4">
+        <v>2938867.009377287</v>
+      </c>
+      <c r="BX4">
+        <v>2994848.692076536</v>
+      </c>
+      <c r="BY4">
+        <v>3049582.249258442</v>
+      </c>
+      <c r="BZ4">
+        <v>3103658.223323317</v>
+      </c>
+      <c r="CA4">
+        <v>3157271.433362141</v>
+      </c>
+      <c r="CB4">
+        <v>3210712.039134901</v>
+      </c>
+      <c r="CC4">
+        <v>3264313.234848966</v>
+      </c>
+      <c r="CD4">
+        <v>3317798.787196316</v>
+      </c>
+      <c r="CE4">
+        <v>3372745.360128963</v>
+      </c>
+      <c r="CF4">
+        <v>3429441.907962304</v>
+      </c>
+      <c r="CG4">
+        <v>3488039.212178472</v>
+      </c>
+      <c r="CH4">
+        <v>3548577.65538787</v>
+      </c>
+      <c r="CI4">
+        <v>3609392.804843554</v>
+      </c>
+      <c r="CJ4">
+        <v>3671768.107569113</v>
+      </c>
+      <c r="CK4">
+        <v>3735392.087600519</v>
+      </c>
+      <c r="CL4">
+        <v>3799992.634225344</v>
+      </c>
+      <c r="CM4">
+        <v>3865352.975174809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3598.012364742959</v>
+      </c>
+      <c r="C5">
+        <v>6230.635013162861</v>
+      </c>
+      <c r="D5">
+        <v>8685.850810373171</v>
+      </c>
+      <c r="E5">
+        <v>11041.36950152555</v>
+      </c>
+      <c r="F5">
+        <v>13762.59881917884</v>
+      </c>
+      <c r="G5">
+        <v>17274.84488638168</v>
+      </c>
+      <c r="H5">
+        <v>21123.28464982027</v>
+      </c>
+      <c r="I5">
+        <v>24274.66414830858</v>
+      </c>
+      <c r="J5">
+        <v>27257.83542495612</v>
+      </c>
+      <c r="K5">
+        <v>30574.39369848658</v>
+      </c>
+      <c r="L5">
+        <v>33935.39213816408</v>
+      </c>
+      <c r="M5">
+        <v>38920.47223939069</v>
+      </c>
+      <c r="N5">
+        <v>75393.07061433198</v>
+      </c>
+      <c r="O5">
+        <v>111922.1023994149</v>
+      </c>
+      <c r="P5">
+        <v>148522.9618623684</v>
+      </c>
+      <c r="Q5">
+        <v>270091.8274902622</v>
+      </c>
+      <c r="R5">
+        <v>391771.337530083</v>
+      </c>
+      <c r="S5">
+        <v>513585.4554745493</v>
+      </c>
+      <c r="T5">
+        <v>635562.3373748248</v>
+      </c>
+      <c r="U5">
+        <v>757736.2000312626</v>
+      </c>
+      <c r="V5">
+        <v>886011.5302991442</v>
+      </c>
+      <c r="W5">
+        <v>1014583.871105133</v>
+      </c>
+      <c r="X5">
+        <v>1143529.362556932</v>
+      </c>
+      <c r="Y5">
+        <v>1272951.460071218</v>
+      </c>
+      <c r="Z5">
+        <v>1402990.906063304</v>
+      </c>
+      <c r="AA5">
+        <v>1440016.371404536</v>
+      </c>
+      <c r="AB5">
+        <v>1478102.659162309</v>
+      </c>
+      <c r="AC5">
+        <v>1517581.129225346</v>
+      </c>
+      <c r="AD5">
+        <v>1558875.079632133</v>
+      </c>
+      <c r="AE5">
+        <v>1602510.417823691</v>
+      </c>
+      <c r="AF5">
+        <v>1617711.996367615</v>
+      </c>
+      <c r="AG5">
+        <v>1636204.833550379</v>
+      </c>
+      <c r="AH5">
+        <v>1658723.178078056</v>
+      </c>
+      <c r="AI5">
+        <v>1686604.598307855</v>
+      </c>
+      <c r="AJ5">
+        <v>1720772.216787872</v>
+      </c>
+      <c r="AK5">
+        <v>1774743.471380099</v>
+      </c>
+      <c r="AL5">
+        <v>1836502.37126173</v>
+      </c>
+      <c r="AM5">
+        <v>1906503.963937706</v>
+      </c>
+      <c r="AN5">
+        <v>1984890.916597738</v>
+      </c>
+      <c r="AO5">
+        <v>2071420.840049657</v>
+      </c>
+      <c r="AP5">
+        <v>2183513.585725272</v>
+      </c>
+      <c r="AQ5">
+        <v>2301969.565449073</v>
+      </c>
+      <c r="AR5">
+        <v>2425288.970018402</v>
+      </c>
+      <c r="AS5">
+        <v>2551670.197558375</v>
+      </c>
+      <c r="AT5">
+        <v>2679139.803228569</v>
+      </c>
+      <c r="AU5">
+        <v>2810897.624578505</v>
+      </c>
+      <c r="AV5">
+        <v>2939896.766486107</v>
+      </c>
+      <c r="AW5">
+        <v>3064559.921765195</v>
+      </c>
+      <c r="AX5">
+        <v>3183698.393280183</v>
+      </c>
+      <c r="AY5">
+        <v>3296587.524048007</v>
+      </c>
+      <c r="AZ5">
+        <v>3399909.452280613</v>
+      </c>
+      <c r="BA5">
+        <v>3497045.959253309</v>
+      </c>
+      <c r="BB5">
+        <v>3588759.569876121</v>
+      </c>
+      <c r="BC5">
+        <v>3676224.466044944</v>
+      </c>
+      <c r="BD5">
+        <v>3760927.44347569</v>
+      </c>
+      <c r="BE5">
+        <v>3842809.468472534</v>
+      </c>
+      <c r="BF5">
+        <v>3925331.317487165</v>
+      </c>
+      <c r="BG5">
+        <v>4010144.781737134</v>
+      </c>
+      <c r="BH5">
+        <v>4098721.640817063</v>
+      </c>
+      <c r="BI5">
+        <v>4192278.733449734</v>
+      </c>
+      <c r="BJ5">
+        <v>4291435.322849196</v>
+      </c>
+      <c r="BK5">
+        <v>4397075.082368878</v>
+      </c>
+      <c r="BL5">
+        <v>4509449.643022102</v>
+      </c>
+      <c r="BM5">
+        <v>4628479.9183082</v>
+      </c>
+      <c r="BN5">
+        <v>4753777.329722797</v>
+      </c>
+      <c r="BO5">
+        <v>4884698.957446847</v>
+      </c>
+      <c r="BP5">
+        <v>5020347.02094567</v>
+      </c>
+      <c r="BQ5">
+        <v>5159684.016881817</v>
+      </c>
+      <c r="BR5">
+        <v>5301583.912109081</v>
+      </c>
+      <c r="BS5">
+        <v>5444903.205882944</v>
+      </c>
+      <c r="BT5">
+        <v>5588041.750795092</v>
+      </c>
+      <c r="BU5">
+        <v>5730536.78347322</v>
+      </c>
+      <c r="BV5">
+        <v>5871591.426799886</v>
+      </c>
+      <c r="BW5">
+        <v>6010627.65237942</v>
+      </c>
+      <c r="BX5">
+        <v>6147313.107961223</v>
+      </c>
+      <c r="BY5">
+        <v>6280718.18195917</v>
+      </c>
+      <c r="BZ5">
+        <v>6411863.037873619</v>
+      </c>
+      <c r="CA5">
+        <v>6541137.54133644</v>
+      </c>
+      <c r="CB5">
+        <v>6669115.502228163</v>
+      </c>
+      <c r="CC5">
+        <v>6796506.568674535</v>
+      </c>
+      <c r="CD5">
+        <v>6922663.927969792</v>
+      </c>
+      <c r="CE5">
+        <v>7049839.335883782</v>
+      </c>
+      <c r="CF5">
+        <v>7178815.280346323</v>
+      </c>
+      <c r="CG5">
+        <v>7310293.324730627</v>
+      </c>
+      <c r="CH5">
+        <v>7444853.983475989</v>
+      </c>
+      <c r="CI5">
+        <v>7580678.716080739</v>
+      </c>
+      <c r="CJ5">
+        <v>7720278.812987873</v>
+      </c>
+      <c r="CK5">
+        <v>7863743.070537205</v>
+      </c>
+      <c r="CL5">
+        <v>8010991.995367052</v>
+      </c>
+      <c r="CM5">
+        <v>8161793.131570847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828165E-11</v>
+      </c>
+      <c r="C2">
+        <v>3.617746996228148E-10</v>
+      </c>
+      <c r="D2">
+        <v>3.006684872172243E-09</v>
+      </c>
+      <c r="E2">
+        <v>2.095320625685701E-08</v>
+      </c>
+      <c r="F2">
+        <v>1.261246519112247E-07</v>
+      </c>
+      <c r="G2">
+        <v>6.69160095893308E-07</v>
+      </c>
+      <c r="H2">
+        <v>3.180129245194235E-06</v>
+      </c>
+      <c r="I2">
+        <v>1.371742325092338E-05</v>
+      </c>
+      <c r="J2">
+        <v>5.428358598040136E-05</v>
+      </c>
+      <c r="K2">
+        <v>0.000198692957510336</v>
+      </c>
+      <c r="L2">
+        <v>0.0006757458376157194</v>
+      </c>
+      <c r="M2">
+        <v>0.002130254181665698</v>
+      </c>
+      <c r="N2">
+        <v>0.006122494201164547</v>
+      </c>
+      <c r="O2">
+        <v>0.01539476670735821</v>
+      </c>
+      <c r="P2">
+        <v>0.03172459408337397</v>
+      </c>
+      <c r="Q2">
+        <v>0.05140918894255478</v>
+      </c>
+      <c r="R2">
+        <v>0.06951979927875526</v>
+      </c>
+      <c r="S2">
+        <v>0.08915421484617278</v>
+      </c>
+      <c r="T2">
+        <v>0.1158362852329</v>
+      </c>
+      <c r="U2">
+        <v>0.1539054825561969</v>
+      </c>
+      <c r="V2">
+        <v>0.2116542025804313</v>
+      </c>
+      <c r="W2">
+        <v>0.2966772538321893</v>
+      </c>
+      <c r="X2">
+        <v>0.4110820363654769</v>
+      </c>
+      <c r="Y2">
+        <v>0.5606670420904644</v>
+      </c>
+      <c r="Z2">
+        <v>0.7534395800804921</v>
+      </c>
+      <c r="AA2">
+        <v>0.9795423840650725</v>
+      </c>
+      <c r="AB2">
+        <v>1.245284271048208</v>
+      </c>
+      <c r="AC2">
+        <v>1.573611902940256</v>
+      </c>
+      <c r="AD2">
+        <v>1.958819234071119</v>
+      </c>
+      <c r="AE2">
+        <v>2.416401130050878</v>
+      </c>
+      <c r="AF2">
+        <v>2.917210249658564</v>
+      </c>
+      <c r="AG2">
+        <v>3.45087074862316</v>
+      </c>
+      <c r="AH2">
+        <v>4.103816301315924</v>
+      </c>
+      <c r="AI2">
+        <v>4.957120473279097</v>
+      </c>
+      <c r="AJ2">
+        <v>6.000725471387645</v>
+      </c>
+      <c r="AK2">
+        <v>7.345796990739155</v>
+      </c>
+      <c r="AL2">
+        <v>9.123921873048005</v>
+      </c>
+      <c r="AM2">
+        <v>11.51432000028071</v>
+      </c>
+      <c r="AN2">
+        <v>14.70556735497883</v>
+      </c>
+      <c r="AO2">
+        <v>18.46074417953303</v>
+      </c>
+      <c r="AP2">
+        <v>22.51871838489405</v>
+      </c>
+      <c r="AQ2">
+        <v>26.83562986177455</v>
+      </c>
+      <c r="AR2">
+        <v>31.36573082166282</v>
+      </c>
+      <c r="AS2">
+        <v>36.06712051781157</v>
+      </c>
+      <c r="AT2">
+        <v>40.95328727182601</v>
+      </c>
+      <c r="AU2">
+        <v>45.96953794391782</v>
+      </c>
+      <c r="AV2">
+        <v>50.85616098878346</v>
+      </c>
+      <c r="AW2">
+        <v>55.12114450609715</v>
+      </c>
+      <c r="AX2">
+        <v>58.40060102418783</v>
+      </c>
+      <c r="AY2">
+        <v>61.1832108894825</v>
+      </c>
+      <c r="AZ2">
+        <v>63.95651280205995</v>
+      </c>
+      <c r="BA2">
+        <v>66.67390768066312</v>
+      </c>
+      <c r="BB2">
+        <v>69.16146553127184</v>
+      </c>
+      <c r="BC2">
+        <v>71.29898708853031</v>
+      </c>
+      <c r="BD2">
+        <v>73.30070735069776</v>
+      </c>
+      <c r="BE2">
+        <v>75.42776821832092</v>
+      </c>
+      <c r="BF2">
+        <v>77.80284955732418</v>
+      </c>
+      <c r="BG2">
+        <v>80.57099508024699</v>
+      </c>
+      <c r="BH2">
+        <v>83.88872517089324</v>
+      </c>
+      <c r="BI2">
+        <v>87.80610396484688</v>
+      </c>
+      <c r="BJ2">
+        <v>92.36698001504855</v>
+      </c>
+      <c r="BK2">
+        <v>97.64704523797705</v>
+      </c>
+      <c r="BL2">
+        <v>103.6688290998814</v>
+      </c>
+      <c r="BM2">
+        <v>110.3842126634799</v>
+      </c>
+      <c r="BN2">
+        <v>117.552527050258</v>
+      </c>
+      <c r="BO2">
+        <v>124.9742417468399</v>
+      </c>
+      <c r="BP2">
+        <v>132.6051844020582</v>
+      </c>
+      <c r="BQ2">
+        <v>140.4013510185672</v>
+      </c>
+      <c r="BR2">
+        <v>148.2308880814708</v>
+      </c>
+      <c r="BS2">
+        <v>155.811189456693</v>
+      </c>
+      <c r="BT2">
+        <v>162.8633626831871</v>
+      </c>
+      <c r="BU2">
+        <v>169.3241424651956</v>
+      </c>
+      <c r="BV2">
+        <v>175.3645640814067</v>
+      </c>
+      <c r="BW2">
+        <v>181.1753762875325</v>
+      </c>
+      <c r="BX2">
+        <v>186.8333137665076</v>
+      </c>
+      <c r="BY2">
+        <v>192.3251913019481</v>
+      </c>
+      <c r="BZ2">
+        <v>197.6612209779233</v>
+      </c>
+      <c r="CA2">
+        <v>202.9553088406597</v>
+      </c>
+      <c r="CB2">
+        <v>208.3733308723813</v>
+      </c>
+      <c r="CC2">
+        <v>214.1015886256576</v>
+      </c>
+      <c r="CD2">
+        <v>220.2972374172364</v>
+      </c>
+      <c r="CE2">
+        <v>227.0584056506588</v>
+      </c>
+      <c r="CF2">
+        <v>234.4352664791469</v>
+      </c>
+      <c r="CG2">
+        <v>242.4578729531838</v>
+      </c>
+      <c r="CH2">
+        <v>251.1655338437895</v>
+      </c>
+      <c r="CI2">
+        <v>260.5452440235707</v>
+      </c>
+      <c r="CJ2">
+        <v>270.4905650806445</v>
+      </c>
+      <c r="CK2">
+        <v>280.8359172439017</v>
+      </c>
+      <c r="CL2">
+        <v>291.4316906185098</v>
+      </c>
+      <c r="CM2">
+        <v>302.1870435719678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02048270970275495</v>
+      </c>
+      <c r="C4">
+        <v>0.05781840164800088</v>
+      </c>
+      <c r="D4">
+        <v>0.1236904711450395</v>
+      </c>
+      <c r="E4">
+        <v>0.2372338852573775</v>
+      </c>
+      <c r="F4">
+        <v>0.4292655741774788</v>
+      </c>
+      <c r="G4">
+        <v>0.7483454349689673</v>
+      </c>
+      <c r="H4">
+        <v>1.270356839384121</v>
+      </c>
+      <c r="I4">
+        <v>2.117082912948548</v>
+      </c>
+      <c r="J4">
+        <v>3.499932795144193</v>
+      </c>
+      <c r="K4">
+        <v>5.831776714076065</v>
+      </c>
+      <c r="L4">
+        <v>10.0014942856987</v>
+      </c>
+      <c r="M4">
+        <v>17.91436768398335</v>
+      </c>
+      <c r="N4">
+        <v>32.85122260730485</v>
+      </c>
+      <c r="O4">
+        <v>57.19350656454989</v>
+      </c>
+      <c r="P4">
+        <v>88.08450729518268</v>
+      </c>
+      <c r="Q4">
+        <v>123.2691522605765</v>
+      </c>
+      <c r="R4">
+        <v>164.6262044663433</v>
+      </c>
+      <c r="S4">
+        <v>214.9056856933059</v>
+      </c>
+      <c r="T4">
+        <v>276.4665993519084</v>
+      </c>
+      <c r="U4">
+        <v>351.267202708709</v>
+      </c>
+      <c r="V4">
+        <v>442.6249885456621</v>
+      </c>
+      <c r="W4">
+        <v>553.6002626157519</v>
+      </c>
+      <c r="X4">
+        <v>684.7402995606319</v>
+      </c>
+      <c r="Y4">
+        <v>840.0214528516051</v>
+      </c>
+      <c r="Z4">
+        <v>1025.022432575344</v>
+      </c>
+      <c r="AA4">
+        <v>1245.136884494352</v>
+      </c>
+      <c r="AB4">
+        <v>1514.768105065961</v>
+      </c>
+      <c r="AC4">
+        <v>1845.575149835815</v>
+      </c>
+      <c r="AD4">
+        <v>2242.206019476767</v>
+      </c>
+      <c r="AE4">
+        <v>2723.313835770742</v>
+      </c>
+      <c r="AF4">
+        <v>3317.173769876678</v>
+      </c>
+      <c r="AG4">
+        <v>4058.876630203473</v>
+      </c>
+      <c r="AH4">
+        <v>4987.051398435678</v>
+      </c>
+      <c r="AI4">
+        <v>6141.97613898012</v>
+      </c>
+      <c r="AJ4">
+        <v>7584.838753112414</v>
+      </c>
+      <c r="AK4">
+        <v>9383.938739634408</v>
+      </c>
+      <c r="AL4">
+        <v>11576.9768090171</v>
+      </c>
+      <c r="AM4">
+        <v>14223.73028299481</v>
+      </c>
+      <c r="AN4">
+        <v>17375.05927249104</v>
+      </c>
+      <c r="AO4">
+        <v>20935.60904460376</v>
+      </c>
+      <c r="AP4">
+        <v>24795.44641259229</v>
+      </c>
+      <c r="AQ4">
+        <v>28903.47761320729</v>
+      </c>
+      <c r="AR4">
+        <v>33196.34238802393</v>
+      </c>
+      <c r="AS4">
+        <v>37600.90356193222</v>
+      </c>
+      <c r="AT4">
+        <v>42050.19016491198</v>
+      </c>
+      <c r="AU4">
+        <v>46461.88044900158</v>
+      </c>
+      <c r="AV4">
+        <v>50717.3810663933</v>
+      </c>
+      <c r="AW4">
+        <v>54665.17414502594</v>
+      </c>
+      <c r="AX4">
+        <v>58198.96639012302</v>
+      </c>
+      <c r="AY4">
+        <v>61401.87509792142</v>
+      </c>
+      <c r="AZ4">
+        <v>64367.68395314294</v>
+      </c>
+      <c r="BA4">
+        <v>67099.62024212003</v>
+      </c>
+      <c r="BB4">
+        <v>69601.75798721288</v>
+      </c>
+      <c r="BC4">
+        <v>71904.83205856434</v>
+      </c>
+      <c r="BD4">
+        <v>74096.97426487503</v>
+      </c>
+      <c r="BE4">
+        <v>76280.23492951502</v>
+      </c>
+      <c r="BF4">
+        <v>78545.37708055136</v>
+      </c>
+      <c r="BG4">
+        <v>80993.22645722466</v>
+      </c>
+      <c r="BH4">
+        <v>83719.77584886531</v>
+      </c>
+      <c r="BI4">
+        <v>86782.12441459895</v>
+      </c>
+      <c r="BJ4">
+        <v>90218.82238105853</v>
+      </c>
+      <c r="BK4">
+        <v>94052.71506658223</v>
+      </c>
+      <c r="BL4">
+        <v>98269.68988890992</v>
+      </c>
+      <c r="BM4">
+        <v>102832.260356596</v>
+      </c>
+      <c r="BN4">
+        <v>107675.0028929827</v>
+      </c>
+      <c r="BO4">
+        <v>112738.393527364</v>
+      </c>
+      <c r="BP4">
+        <v>117981.8249949666</v>
+      </c>
+      <c r="BQ4">
+        <v>123358.3592964665</v>
+      </c>
+      <c r="BR4">
+        <v>128801.2043078264</v>
+      </c>
+      <c r="BS4">
+        <v>134216.910854573</v>
+      </c>
+      <c r="BT4">
+        <v>139517.7975420907</v>
+      </c>
+      <c r="BU4">
+        <v>144665.2742583623</v>
+      </c>
+      <c r="BV4">
+        <v>149674.933052641</v>
+      </c>
+      <c r="BW4">
+        <v>154572.2567347045</v>
+      </c>
+      <c r="BX4">
+        <v>159365.4038349536</v>
+      </c>
+      <c r="BY4">
+        <v>164054.7345791075</v>
+      </c>
+      <c r="BZ4">
+        <v>168652.0350102427</v>
+      </c>
+      <c r="CA4">
+        <v>173189.5320284569</v>
+      </c>
+      <c r="CB4">
+        <v>177715.2741785896</v>
+      </c>
+      <c r="CC4">
+        <v>182292.0750457101</v>
+      </c>
+      <c r="CD4">
+        <v>186987.2535653907</v>
+      </c>
+      <c r="CE4">
+        <v>191857.4487854085</v>
+      </c>
+      <c r="CF4">
+        <v>196941.6038580038</v>
+      </c>
+      <c r="CG4">
+        <v>202263.3072770898</v>
+      </c>
+      <c r="CH4">
+        <v>207833.7550740406</v>
+      </c>
+      <c r="CI4">
+        <v>213645.3063779039</v>
+      </c>
+      <c r="CJ4">
+        <v>219672.4186270377</v>
+      </c>
+      <c r="CK4">
+        <v>225881.6191841902</v>
+      </c>
+      <c r="CL4">
+        <v>232241.9416389986</v>
+      </c>
+      <c r="CM4">
+        <v>238727.3834185478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.003127542460117912</v>
+      </c>
+      <c r="D5">
+        <v>0.006661634148447663</v>
+      </c>
+      <c r="E5">
+        <v>0.01271385451400339</v>
+      </c>
+      <c r="F5">
+        <v>0.02287953624076057</v>
+      </c>
+      <c r="G5">
+        <v>0.03962962767554074</v>
+      </c>
+      <c r="H5">
+        <v>0.06666155456443876</v>
+      </c>
+      <c r="I5">
+        <v>0.1093243876033211</v>
+      </c>
+      <c r="J5">
+        <v>0.1751234629233177</v>
+      </c>
+      <c r="K5">
+        <v>0.2743016860166777</v>
+      </c>
+      <c r="L5">
+        <v>0.4204752777975791</v>
+      </c>
+      <c r="M5">
+        <v>0.6312862370772219</v>
+      </c>
+      <c r="N5">
+        <v>0.9290241355424438</v>
+      </c>
+      <c r="O5">
+        <v>1.341161057469166</v>
+      </c>
+      <c r="P5">
+        <v>1.900813184956213</v>
+      </c>
+      <c r="Q5">
+        <v>2.647347664605787</v>
+      </c>
+      <c r="R5">
+        <v>3.627329389050348</v>
+      </c>
+      <c r="S5">
+        <v>4.89608313521614</v>
+      </c>
+      <c r="T5">
+        <v>6.520712707604853</v>
+      </c>
+      <c r="U5">
+        <v>8.585395159265584</v>
+      </c>
+      <c r="V5">
+        <v>11.1994816526213</v>
+      </c>
+      <c r="W5">
+        <v>14.50887519814175</v>
+      </c>
+      <c r="X5">
+        <v>18.71117277110493</v>
+      </c>
+      <c r="Y5">
+        <v>24.07508038360675</v>
+      </c>
+      <c r="Z5">
+        <v>30.96446695702777</v>
+      </c>
+      <c r="AA5">
+        <v>39.86704167482448</v>
+      </c>
+      <c r="AB5">
+        <v>51.42695697195684</v>
+      </c>
+      <c r="AC5">
+        <v>66.47937830545332</v>
+      </c>
+      <c r="AD5">
+        <v>86.08304125497534</v>
+      </c>
+      <c r="AE5">
+        <v>111.5453192514794</v>
+      </c>
+      <c r="AF5">
+        <v>144.4332377520159</v>
+      </c>
+      <c r="AG5">
+        <v>186.5629721754691</v>
+      </c>
+      <c r="AH5">
+        <v>239.9600834769296</v>
+      </c>
+      <c r="AI5">
+        <v>306.7833941542192</v>
+      </c>
+      <c r="AJ5">
+        <v>389.2077396023034</v>
+      </c>
+      <c r="AK5">
+        <v>489.2651116569161</v>
+      </c>
+      <c r="AL5">
+        <v>608.6500409887492</v>
+      </c>
+      <c r="AM5">
+        <v>748.5033485464119</v>
+      </c>
+      <c r="AN5">
+        <v>909.1976235786279</v>
+      </c>
+      <c r="AO5">
+        <v>1090.155642790544</v>
+      </c>
+      <c r="AP5">
+        <v>1289.73650454165</v>
+      </c>
+      <c r="AQ5">
+        <v>1505.220766542828</v>
+      </c>
+      <c r="AR5">
+        <v>1732.91404755464</v>
+      </c>
+      <c r="AS5">
+        <v>1968.369720446736</v>
+      </c>
+      <c r="AT5">
+        <v>2206.709441719272</v>
+      </c>
+      <c r="AU5">
+        <v>2443.001509921759</v>
+      </c>
+      <c r="AV5">
+        <v>2672.647459526976</v>
+      </c>
+      <c r="AW5">
+        <v>2891.730015826225</v>
+      </c>
+      <c r="AX5">
+        <v>3097.288984838824</v>
+      </c>
+      <c r="AY5">
+        <v>3287.509458871206</v>
+      </c>
+      <c r="AZ5">
+        <v>3461.820685086677</v>
+      </c>
+      <c r="BA5">
+        <v>3620.908801738648</v>
+      </c>
+      <c r="BB5">
+        <v>3766.643917656665</v>
+      </c>
+      <c r="BC5">
+        <v>3901.919496035287</v>
+      </c>
+      <c r="BD5">
+        <v>4030.407941124872</v>
+      </c>
+      <c r="BE5">
+        <v>4156.252052955266</v>
+      </c>
+      <c r="BF5">
+        <v>4283.729855906416</v>
+      </c>
+      <c r="BG5">
+        <v>4416.93855282958</v>
+      </c>
+      <c r="BH5">
+        <v>4559.535262862668</v>
+      </c>
+      <c r="BI5">
+        <v>4714.551438940058</v>
+      </c>
+      <c r="BJ5">
+        <v>4884.276170586817</v>
+      </c>
+      <c r="BK5">
+        <v>5070.192410284501</v>
+      </c>
+      <c r="BL5">
+        <v>5272.952647465992</v>
+      </c>
+      <c r="BM5">
+        <v>5492.39015338401</v>
+      </c>
+      <c r="BN5">
+        <v>5727.56875746144</v>
+      </c>
+      <c r="BO5">
+        <v>5976.873170361459</v>
+      </c>
+      <c r="BP5">
+        <v>6238.135745904939</v>
+      </c>
+      <c r="BQ5">
+        <v>6508.790250616774</v>
+      </c>
+      <c r="BR5">
+        <v>6786.041974694193</v>
+      </c>
+      <c r="BS5">
+        <v>7067.044987890687</v>
+      </c>
+      <c r="BT5">
+        <v>7349.078235574294</v>
+      </c>
+      <c r="BU5">
+        <v>7629.710983903739</v>
+      </c>
+      <c r="BV5">
+        <v>7906.94623420966</v>
+      </c>
+      <c r="BW5">
+        <v>8179.33066293762</v>
+      </c>
+      <c r="BX5">
+        <v>8446.022662663599</v>
+      </c>
+      <c r="BY5">
+        <v>8706.81512944878</v>
+      </c>
+      <c r="BZ5">
+        <v>8962.114481910598</v>
+      </c>
+      <c r="CA5">
+        <v>9212.880448543188</v>
+      </c>
+      <c r="CB5">
+        <v>9460.532645936662</v>
+      </c>
+      <c r="CC5">
+        <v>9706.831194462342</v>
+      </c>
+      <c r="CD5">
+        <v>9953.740352856059</v>
+      </c>
+      <c r="CE5">
+        <v>10203.2858776678</v>
+      </c>
+      <c r="CF5">
+        <v>10457.41737050551</v>
+      </c>
+      <c r="CG5">
+        <v>10717.88564775465</v>
+      </c>
+      <c r="CH5">
+        <v>10986.14258895709</v>
+      </c>
+      <c r="CI5">
+        <v>11263.26797379328</v>
+      </c>
+      <c r="CJ5">
+        <v>11549.92529036272</v>
+      </c>
+      <c r="CK5">
+        <v>11846.34660138775</v>
+      </c>
+      <c r="CL5">
+        <v>12152.34505893305</v>
+      </c>
+      <c r="CM5">
+        <v>12467.35230984303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>